--- a/mass_radius_planet.xlsx
+++ b/mass_radius_planet.xlsx
@@ -16,16 +16,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Pl Name</t>
+    <t>pl_name</t>
   </si>
   <si>
-    <t>Mass_Earth</t>
+    <t>pl_masse</t>
   </si>
   <si>
-    <t>Radius_Earth</t>
+    <t>pl_radde</t>
   </si>
   <si>
-    <t>Rowupdate</t>
+    <t>rowupdate</t>
   </si>
 </sst>
 </file>
@@ -851,7 +851,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/mass_radius_planet.xlsx
+++ b/mass_radius_planet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="5">
   <si>
     <t>pl_name</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>rowupdate</t>
+  </si>
+  <si>
+    <t>var</t>
   </si>
 </sst>
 </file>
@@ -510,9 +513,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -851,7 +855,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -871,171 +875,297 @@
       </c>
     </row>
     <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
       <c r="B2" s="1">
         <v>5.9999999999999999E+24</v>
       </c>
       <c r="C2">
         <v>6290000</v>
       </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
       <c r="B3" s="1">
         <v>1.2E+25</v>
       </c>
       <c r="C3">
         <v>7682000</v>
       </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
       <c r="B4" s="1">
         <v>1.8000000000000001E+25</v>
       </c>
       <c r="C4">
         <v>8593000</v>
       </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
       <c r="B5" s="1">
         <v>2.0000000000000002E+25</v>
       </c>
       <c r="C5">
         <v>8839000</v>
       </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
       <c r="B6" s="1">
         <v>2.4E+25</v>
       </c>
       <c r="C6">
         <v>9273000</v>
       </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
       <c r="B7" s="1">
         <v>3.0000000000000001E+25</v>
       </c>
       <c r="C7">
         <v>9821000</v>
       </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
       <c r="B8" s="1">
         <v>3.6000000000000002E+25</v>
       </c>
       <c r="C8">
         <v>10274000</v>
       </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
       <c r="B9" s="1">
         <v>4.1999999999999998E+25</v>
       </c>
       <c r="C9">
         <v>10669285.710000001</v>
       </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
       <c r="B10" s="1">
         <v>4.7999999999999999E+25</v>
       </c>
       <c r="C10">
         <v>11018000</v>
       </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
       <c r="B11" s="1">
         <v>5.4E+25</v>
       </c>
       <c r="C11">
         <v>11329000</v>
       </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
       <c r="B12" s="1">
         <v>6.0000000000000001E+25</v>
       </c>
       <c r="C12">
         <v>11611000</v>
       </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
       <c r="B13" s="1">
         <v>6.6000000000000002E+25</v>
       </c>
       <c r="C13">
         <v>11874000</v>
       </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
       <c r="B14" s="1">
         <v>7.2000000000000003E+25</v>
       </c>
       <c r="C14">
         <v>12103000</v>
       </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
       <c r="B15" s="1">
         <v>7.8000000000000004E+25</v>
       </c>
       <c r="C15">
         <v>12321000</v>
       </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
       <c r="B16" s="1">
         <v>8.3999999999999996E+25</v>
       </c>
       <c r="C16">
         <v>12523000</v>
       </c>
-    </row>
-    <row r="17" spans="2:3">
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
       <c r="B17" s="1">
         <v>9.0000000000000006E+25</v>
       </c>
       <c r="C17">
         <v>12711000</v>
       </c>
-    </row>
-    <row r="18" spans="2:3">
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
       <c r="B18" s="1">
         <v>9.5999999999999998E+25</v>
       </c>
       <c r="C18">
         <v>12888000</v>
       </c>
-    </row>
-    <row r="19" spans="2:3">
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
       <c r="B19" s="1">
         <v>1.0200000000000001E+26</v>
       </c>
       <c r="C19">
         <v>13053000</v>
       </c>
-    </row>
-    <row r="20" spans="2:3">
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
       <c r="B20" s="1">
         <v>1.08E+26</v>
       </c>
       <c r="C20">
         <v>13207000</v>
       </c>
-    </row>
-    <row r="21" spans="2:3">
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
       <c r="B21" s="1">
         <v>1.1399999999999999E+26</v>
       </c>
       <c r="C21">
         <v>13355000</v>
       </c>
-    </row>
-    <row r="22" spans="2:3">
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
       <c r="B22" s="1">
         <v>1.2E+26</v>
       </c>
       <c r="C22">
         <v>13494000</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/mass_radius_planet.xlsx
+++ b/mass_radius_planet.xlsx
@@ -28,7 +28,7 @@
     <t>rowupdate</t>
   </si>
   <si>
-    <t>var</t>
+    <t>Mass-Radius-Curve</t>
   </si>
 </sst>
 </file>
@@ -855,7 +855,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A22" sqref="A3:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/mass_radius_planet.xlsx
+++ b/mass_radius_planet.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gbeebe\Documents\GitHub\ZooGorilla.github.io\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="348" windowWidth="15924" windowHeight="4200"/>
+    <workbookView xWindow="383" yWindow="345" windowWidth="15923" windowHeight="4200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mass_radius_planet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="8">
   <si>
     <t>pl_name</t>
   </si>
@@ -28,14 +35,23 @@
     <t>rowupdate</t>
   </si>
   <si>
-    <t>Mass-Radius-Curve</t>
+    <t>Planet Radius(Xc 0.315, Xice 0.0)</t>
+  </si>
+  <si>
+    <t>Planet Radius(Xc 0.150, Xice 0.0)</t>
+  </si>
+  <si>
+    <t>Planet Radius(Xc 0.150, Xice 0.150)</t>
+  </si>
+  <si>
+    <t>Planet Radius(Xc 0.150, Xice 0.3)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -564,6 +580,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -610,7 +634,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -642,9 +666,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -676,6 +718,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -851,16 +911,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A3:A22"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="29.06640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -874,7 +937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -888,7 +951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -902,7 +965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -916,7 +979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -930,7 +993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -944,7 +1007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -958,7 +1021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -972,7 +1035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -986,7 +1049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1000,7 +1063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1014,7 +1077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1028,7 +1091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1042,7 +1105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1056,7 +1119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1070,7 +1133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1084,7 +1147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1098,7 +1161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1112,7 +1175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1126,7 +1189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1140,7 +1203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1154,7 +1217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1165,10 +1228,846 @@
         <v>13494000</v>
       </c>
       <c r="D22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1">
+        <v>5.9999999999999999E+24</v>
+      </c>
+      <c r="C23" s="1">
+        <v>7070771</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1.2E+25</v>
+      </c>
+      <c r="C24" s="1">
+        <v>8636336</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1.8000000000000001E+25</v>
+      </c>
+      <c r="C25" s="1">
+        <v>9658297</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2.4E+25</v>
+      </c>
+      <c r="C26" s="1">
+        <v>10421650</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="1">
+        <v>3.0000000000000001E+25</v>
+      </c>
+      <c r="C27" s="1">
+        <v>11035010</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1">
+        <v>3.6000000000000002E+25</v>
+      </c>
+      <c r="C28" s="1">
+        <v>11548620</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="1">
+        <v>4.1999999999999998E+25</v>
+      </c>
+      <c r="C29" s="1">
+        <v>11991570</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="1">
+        <v>4.7999999999999999E+25</v>
+      </c>
+      <c r="C30" s="1">
+        <v>12381420</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="1">
+        <v>5.4E+25</v>
+      </c>
+      <c r="C31" s="1">
+        <v>12729430</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="1">
+        <v>6.0000000000000001E+25</v>
+      </c>
+      <c r="C32" s="1">
+        <v>13044130</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="1">
+        <v>6.6000000000000002E+25</v>
+      </c>
+      <c r="C33" s="1">
+        <v>13329880</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="1">
+        <v>7.2000000000000003E+25</v>
+      </c>
+      <c r="C34" s="1">
+        <v>13594040</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="1">
+        <v>7.8000000000000004E+25</v>
+      </c>
+      <c r="C35" s="1">
+        <v>13838380</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="1">
+        <v>8.3999999999999996E+25</v>
+      </c>
+      <c r="C36" s="1">
+        <v>14064780</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="1">
+        <v>9.0000000000000006E+25</v>
+      </c>
+      <c r="C37" s="1">
+        <v>14276140</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="1">
+        <v>9.5999999999999998E+25</v>
+      </c>
+      <c r="C38" s="1">
+        <v>14474380</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1.0200000000000001E+26</v>
+      </c>
+      <c r="C39" s="1">
+        <v>14661150</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1.08E+26</v>
+      </c>
+      <c r="C40" s="1">
+        <v>14837730</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1.1399999999999999E+26</v>
+      </c>
+      <c r="C41" s="1">
+        <v>15004950</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="1">
+        <v>5.9999999999999999E+24</v>
+      </c>
+      <c r="C42" s="1">
+        <v>6557000</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1.2E+25</v>
+      </c>
+      <c r="C43" s="1">
+        <v>8022000</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1.8000000000000001E+25</v>
+      </c>
+      <c r="C44" s="1">
+        <v>8984000</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="1">
+        <v>2.4E+25</v>
+      </c>
+      <c r="C45" s="1">
+        <v>9704000</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="1">
+        <v>3.0000000000000001E+25</v>
+      </c>
+      <c r="C46" s="1">
+        <v>10283000</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="1">
+        <v>3.6000000000000002E+25</v>
+      </c>
+      <c r="C47" s="1">
+        <v>10769000</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="1">
+        <v>4.1999999999999998E+25</v>
+      </c>
+      <c r="C48" s="1">
+        <v>11191070</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="1">
+        <v>4.7999999999999999E+25</v>
+      </c>
+      <c r="C49" s="1">
+        <v>11561000</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="1">
+        <v>5.4E+25</v>
+      </c>
+      <c r="C50" s="1">
+        <v>11893000</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="1">
+        <v>6.0000000000000001E+25</v>
+      </c>
+      <c r="C51" s="1">
+        <v>12194000</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="1">
+        <v>6.6000000000000002E+25</v>
+      </c>
+      <c r="C52" s="1">
+        <v>12468000</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="1">
+        <v>7.2000000000000003E+25</v>
+      </c>
+      <c r="C53" s="1">
+        <v>12720000</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="1">
+        <v>7.8000000000000004E+25</v>
+      </c>
+      <c r="C54" s="1">
+        <v>12954000</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="1">
+        <v>8.3999999999999996E+25</v>
+      </c>
+      <c r="C55" s="1">
+        <v>13171000</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="1">
+        <v>9.0000000000000006E+25</v>
+      </c>
+      <c r="C56" s="1">
+        <v>13368000</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="1">
+        <v>9.5999999999999998E+25</v>
+      </c>
+      <c r="C57" s="1">
+        <v>13557000</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="1">
+        <v>1.0200000000000001E+26</v>
+      </c>
+      <c r="C58" s="1">
+        <v>13736000</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1.08E+26</v>
+      </c>
+      <c r="C59" s="1">
+        <v>13905000</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="1">
+        <v>1.1399999999999999E+26</v>
+      </c>
+      <c r="C60" s="1">
+        <v>14066000</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="1">
+        <v>5.9999999999999999E+24</v>
+      </c>
+      <c r="C61" s="1">
+        <v>7437674</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="1">
+        <v>1.2E+25</v>
+      </c>
+      <c r="C62" s="1">
+        <v>9048240</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="1">
+        <v>1.8000000000000001E+25</v>
+      </c>
+      <c r="C63" s="1">
+        <v>10094650</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="1">
+        <v>2.4E+25</v>
+      </c>
+      <c r="C64" s="1">
+        <v>10874510</v>
+      </c>
+      <c r="D64" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="1">
+        <v>3.0000000000000001E+25</v>
+      </c>
+      <c r="C65" s="1">
+        <v>11500470</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="1">
+        <v>3.6000000000000002E+25</v>
+      </c>
+      <c r="C66" s="1">
+        <v>12023970</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="1">
+        <v>4.1999999999999998E+25</v>
+      </c>
+      <c r="C67" s="1">
+        <v>12475020</v>
+      </c>
+      <c r="D67" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="1">
+        <v>4.7999999999999999E+25</v>
+      </c>
+      <c r="C68" s="1">
+        <v>12871930</v>
+      </c>
+      <c r="D68" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="1">
+        <v>5.4E+25</v>
+      </c>
+      <c r="C69" s="1">
+        <v>13226380</v>
+      </c>
+      <c r="D69" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="1">
+        <v>6.0000000000000001E+25</v>
+      </c>
+      <c r="C70" s="1">
+        <v>13546790</v>
+      </c>
+      <c r="D70" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="1">
+        <v>6.6000000000000002E+25</v>
+      </c>
+      <c r="C71" s="1">
+        <v>13839440</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" s="1">
+        <v>7.2000000000000003E+25</v>
+      </c>
+      <c r="C72" s="1">
+        <v>14107340</v>
+      </c>
+      <c r="D72" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" s="1">
+        <v>7.8000000000000004E+25</v>
+      </c>
+      <c r="C73" s="1">
+        <v>14356780</v>
+      </c>
+      <c r="D73" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="1">
+        <v>8.3999999999999996E+25</v>
+      </c>
+      <c r="C74" s="1">
+        <v>14589270</v>
+      </c>
+      <c r="D74" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" s="1">
+        <v>9.0000000000000006E+25</v>
+      </c>
+      <c r="C75" s="1">
+        <v>14805430</v>
+      </c>
+      <c r="D75" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" s="1">
+        <v>9.5999999999999998E+25</v>
+      </c>
+      <c r="C76" s="1">
+        <v>15009110</v>
+      </c>
+      <c r="D76" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" s="1">
+        <v>1.0200000000000001E+26</v>
+      </c>
+      <c r="C77" s="1">
+        <v>15202410</v>
+      </c>
+      <c r="D77" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" s="1">
+        <v>1.08E+26</v>
+      </c>
+      <c r="C78" s="1">
+        <v>15384030</v>
+      </c>
+      <c r="D78" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" s="1">
+        <v>1.1399999999999999E+26</v>
+      </c>
+      <c r="C79" s="1">
+        <v>15557160</v>
+      </c>
+      <c r="D79" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" s="1">
+        <v>1.2E+26</v>
+      </c>
+      <c r="C80" s="1">
+        <v>15721960</v>
+      </c>
+      <c r="D80" s="2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9810A72-745E-46CF-87A5-89724C2FFE56}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236A989F-6C38-4A50-A843-8D4D40689728}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>